--- a/public/templates/ImporKelas.xlsx
+++ b/public/templates/ImporKelas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36931A1-44FD-42C4-B3DB-28CD234B8D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4CBCC7-6148-4F28-AD4F-6AA094F53590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FADD8C8E-7FE8-45FA-BB6C-EBB1EA053B83}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     </r>
   </si>
   <si>
-    <t>KODE JENJANG</t>
-  </si>
-  <si>
     <t>NAMA KELAS</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
       </rPr>
       <t>Mulai Mengisi Data Pada Baris 3 Dibawah</t>
     </r>
+  </si>
+  <si>
+    <t>JENJANG</t>
   </si>
 </sst>
 </file>
@@ -526,9 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E72DAF-93FD-4535-997D-F9CA6250A9AC}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -539,10 +537,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -550,10 +548,10 @@
     </row>
     <row r="2" spans="1:3" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
